--- a/tmp/manualTesting.xlsx
+++ b/tmp/manualTesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aciur\Documents\Projects\Kraken\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AA15007-D209-41F3-B785-0827BC18F5ED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{480A5C9E-0C35-493D-AB5C-F9D54D298292}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" activeTab="1" xr2:uid="{39AE96B4-38D9-4B14-BB20-204BE6ACE26A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" activeTab="2" xr2:uid="{39AE96B4-38D9-4B14-BB20-204BE6ACE26A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1451,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30F3A1-EAC3-4359-BF20-A2E7AFD95F6C}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I57"/>
     </sheetView>
   </sheetViews>
@@ -2642,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64819705-AEA5-4AFC-8F99-6D42BD4D2427}">
   <dimension ref="B2:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
